--- a/Downer/18232/res.xlsx
+++ b/Downer/18232/res.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\18232\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B367040D-F604-4330-9E0F-45AF651DD4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF18F03-50A0-47F3-8D9D-DB11118051D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="450" windowWidth="25185" windowHeight="19650"/>
+    <workbookView xWindow="3855" yWindow="690" windowWidth="25185" windowHeight="19650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="81">
   <si>
     <t>type</t>
   </si>
@@ -145,9 +145,6 @@
     <t>HOLDPOINT</t>
   </si>
   <si>
-    <t>2.04 - Install crest detail</t>
-  </si>
-  <si>
     <t>Method/Description - Visual Inspection</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Verifying Records - Sub Contractor QA Records</t>
   </si>
   <si>
-    <t>2.04.1 - Install crest detail</t>
-  </si>
-  <si>
     <t>Designer - W</t>
   </si>
   <si>
@@ -260,12 +254,21 @@
   </si>
   <si>
     <t>Verifying Records - Red Pen mark ups</t>
+  </si>
+  <si>
+    <t>2.04.01 - Install crest detail: Soil Nailing</t>
+  </si>
+  <si>
+    <t>2.04.02 - Install crest detail: Erosion Matting</t>
+  </si>
+  <si>
+    <t>46bb3171-5048-4e01-ba74-7b262ae04ed8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -753,10 +756,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1111,11 +1115,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1129,7 @@
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1168,8 +1172,11 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1177,7 +1184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1185,7 +1192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1193,7 +1200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1201,7 +1208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1233,7 +1240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1249,7 +1256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1257,7 +1264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1273,7 +1280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1442,107 +1449,107 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1550,7 +1557,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1558,7 +1565,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +1573,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1582,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +1605,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,7 +1613,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,7 +1621,7 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,7 +1645,7 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +1661,7 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1662,7 +1669,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1670,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1694,7 +1701,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1718,7 +1725,7 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,7 +1733,7 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1766,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,7 +1781,7 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,7 +1789,7 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +1813,7 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1830,7 +1837,7 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,7 +1845,7 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +1885,7 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,7 +1893,7 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,7 +1925,7 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1949,7 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1965,7 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1989,7 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +2005,7 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2013,7 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2021,7 @@
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2030,7 +2037,7 @@
         <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2038,7 +2045,7 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2046,7 +2053,7 @@
         <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,7 +2085,7 @@
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,7 +2101,7 @@
         <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2110,7 +2117,7 @@
         <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2126,7 +2133,7 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2134,7 +2141,7 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
